--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2906C27-4BE3-4A71-87B5-A1E9A0BE12DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A34AADB-4CB6-46BE-A91C-2161AD43ACE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REAL" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6287" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6293" uniqueCount="149">
   <si>
     <t>FECHA</t>
   </si>
@@ -531,11 +531,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -549,10 +550,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -574,7 +575,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3833C2C2-8B32-455A-8F30-765E2799DD9B}" name="REAL" displayName="REAL" ref="A1:E3431" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3833C2C2-8B32-455A-8F30-765E2799DD9B}" name="REAL" displayName="REAL" ref="A1:E3437" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6F32CFE8-B1E6-4BA1-B233-A96A38E426DD}" name="FECHA" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{7EF71D56-CBB1-4CF0-ABF8-1060F97FF15A}" name="MES" dataDxfId="4">
@@ -582,7 +583,7 @@
     </tableColumn>
     <tableColumn id="3" xr3:uid="{620544DA-2011-48B5-B3A6-110F0CD8D5F1}" name="GASTO"/>
     <tableColumn id="4" xr3:uid="{36C1733C-4DBA-4615-B541-889914B6196C}" name="IMPORTE" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{42371860-D287-454D-A6A2-251C34C92A3B}" name="CORP ACCT" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{42371860-D287-454D-A6A2-251C34C92A3B}" name="CORP ACCT" dataDxfId="3">
       <calculatedColumnFormula>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -593,8 +594,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CCE0B53-BE98-48D7-AEE0-C75ABE7D7EB8}" name="BUDGET" displayName="BUDGET" ref="A1:E329" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6F815B20-D0D3-4A47-B261-AFE39FC9997F}" name="FECHA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{360AA377-5F31-4212-814F-E72545CB2121}" name="MES" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{6F815B20-D0D3-4A47-B261-AFE39FC9997F}" name="FECHA" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{360AA377-5F31-4212-814F-E72545CB2121}" name="MES" dataDxfId="1">
       <calculatedColumnFormula>+MONTH(BUDGET[[#This Row],[FECHA]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{EDC79544-7047-415D-8BE2-F4834843E7F1}" name="GASTO"/>
@@ -892,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3431"/>
+  <dimension ref="A1:E3437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A3400" workbookViewId="0">
+      <selection activeCell="A3432" sqref="A3432:E3437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -66093,6 +66094,120 @@
         <v>91000</v>
       </c>
     </row>
+    <row r="3432" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3432" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B3432" s="4">
+        <f t="shared" ref="B3432:B3437" si="55">+MONTH(A3432)</f>
+        <v>6</v>
+      </c>
+      <c r="C3432" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3432" s="2">
+        <v>-2420.42</v>
+      </c>
+      <c r="E3432" s="4">
+        <f>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</f>
+        <v>81001</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3433" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B3433" s="4">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="C3433" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3433" s="2">
+        <v>-2769.31</v>
+      </c>
+      <c r="E3433" s="4">
+        <f>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</f>
+        <v>81001</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3434" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B3434" s="4">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="C3434" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3434" s="2">
+        <v>2420.42</v>
+      </c>
+      <c r="E3434" s="4">
+        <f>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</f>
+        <v>81001</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3435" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B3435" s="4">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="C3435" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3435" s="2">
+        <v>-2900.14</v>
+      </c>
+      <c r="E3435" s="4">
+        <f>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</f>
+        <v>81001</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3436" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B3436" s="4">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="C3436" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3436" s="2">
+        <v>-599378.74</v>
+      </c>
+      <c r="E3436" s="4">
+        <f>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</f>
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3437" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B3437" s="4">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="C3437" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3437" s="2">
+        <v>751867.94</v>
+      </c>
+      <c r="E3437" s="4">
+        <f>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</f>
+        <v>91000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -66105,8 +66220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD254F0-595A-4852-8DD2-AC3C6E6E2715}">
   <dimension ref="A1:E329"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A34AADB-4CB6-46BE-A91C-2161AD43ACE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E38C907-60DA-4471-AA2E-1B29765B1D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REAL" sheetId="1" r:id="rId1"/>
@@ -531,12 +531,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -895,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3437"/>
   <sheetViews>
-    <sheetView topLeftCell="A3400" workbookViewId="0">
-      <selection activeCell="A3432" sqref="A3432:E3437"/>
+    <sheetView tabSelected="1" topLeftCell="A3400" workbookViewId="0">
+      <selection activeCell="C3426" sqref="C3426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -66098,7 +66097,7 @@
       <c r="A3432" s="1">
         <v>45809</v>
       </c>
-      <c r="B3432" s="4">
+      <c r="B3432">
         <f t="shared" ref="B3432:B3437" si="55">+MONTH(A3432)</f>
         <v>6</v>
       </c>
@@ -66108,7 +66107,7 @@
       <c r="D3432" s="2">
         <v>-2420.42</v>
       </c>
-      <c r="E3432" s="4">
+      <c r="E3432">
         <f>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</f>
         <v>81001</v>
       </c>
@@ -66117,7 +66116,7 @@
       <c r="A3433" s="1">
         <v>45809</v>
       </c>
-      <c r="B3433" s="4">
+      <c r="B3433">
         <f t="shared" si="55"/>
         <v>6</v>
       </c>
@@ -66127,7 +66126,7 @@
       <c r="D3433" s="2">
         <v>-2769.31</v>
       </c>
-      <c r="E3433" s="4">
+      <c r="E3433">
         <f>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</f>
         <v>81001</v>
       </c>
@@ -66136,7 +66135,7 @@
       <c r="A3434" s="1">
         <v>45809</v>
       </c>
-      <c r="B3434" s="4">
+      <c r="B3434">
         <f t="shared" si="55"/>
         <v>6</v>
       </c>
@@ -66146,7 +66145,7 @@
       <c r="D3434" s="2">
         <v>2420.42</v>
       </c>
-      <c r="E3434" s="4">
+      <c r="E3434">
         <f>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</f>
         <v>81001</v>
       </c>
@@ -66155,7 +66154,7 @@
       <c r="A3435" s="1">
         <v>45809</v>
       </c>
-      <c r="B3435" s="4">
+      <c r="B3435">
         <f t="shared" si="55"/>
         <v>6</v>
       </c>
@@ -66165,7 +66164,7 @@
       <c r="D3435" s="2">
         <v>-2900.14</v>
       </c>
-      <c r="E3435" s="4">
+      <c r="E3435">
         <f>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</f>
         <v>81001</v>
       </c>
@@ -66174,7 +66173,7 @@
       <c r="A3436" s="1">
         <v>45809</v>
       </c>
-      <c r="B3436" s="4">
+      <c r="B3436">
         <f t="shared" si="55"/>
         <v>6</v>
       </c>
@@ -66184,7 +66183,7 @@
       <c r="D3436" s="2">
         <v>-599378.74</v>
       </c>
-      <c r="E3436" s="4">
+      <c r="E3436">
         <f>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</f>
         <v>91000</v>
       </c>
@@ -66193,7 +66192,7 @@
       <c r="A3437" s="1">
         <v>45809</v>
       </c>
-      <c r="B3437" s="4">
+      <c r="B3437">
         <f t="shared" si="55"/>
         <v>6</v>
       </c>
@@ -66203,7 +66202,7 @@
       <c r="D3437" s="2">
         <v>751867.94</v>
       </c>
-      <c r="E3437" s="4">
+      <c r="E3437">
         <f>+VLOOKUP(REAL[[#This Row],[GASTO]],Table4[#All],2,FALSE)</f>
         <v>91000</v>
       </c>
@@ -66220,7 +66219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD254F0-595A-4852-8DD2-AC3C6E6E2715}">
   <dimension ref="A1:E329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+    <sheetView topLeftCell="A292" workbookViewId="0">
       <selection activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
